--- a/benchmark-results.xlsx
+++ b/benchmark-results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projectvscode\test\benchmark-be-hello-world\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B93D48-BD67-408F-885B-68518500EF4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B182A3-D107-4D4B-8C8C-9B0DFE48BAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8940" yWindow="1248" windowWidth="17328" windowHeight="10464" xr2:uid="{25694EC6-955C-4DE7-8923-5648C4231811}"/>
+    <workbookView xWindow="8856" yWindow="1824" windowWidth="17328" windowHeight="10464" xr2:uid="{25694EC6-955C-4DE7-8923-5648C4231811}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="44">
   <si>
     <t>DOTNET 8</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>RUST AXUM</t>
+  </si>
+  <si>
+    <t>NODE ADONIS</t>
   </si>
 </sst>
 </file>
@@ -330,17 +333,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -676,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D057EC-18C7-42DC-9C69-4E89DDC36C4C}">
-  <dimension ref="A1:J50"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -814,7 +817,7 @@
       <c r="A9" s="19">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
@@ -847,7 +850,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="19"/>
-      <c r="B10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="11" t="s">
         <v>3</v>
       </c>
@@ -878,7 +881,7 @@
       <c r="A11" s="19">
         <v>3</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="21" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="13" t="s">
@@ -911,7 +914,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="19"/>
-      <c r="B12" s="23"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="13" t="s">
         <v>3</v>
       </c>
@@ -1003,10 +1006,10 @@
       <c r="J14" s="10"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="20">
+      <c r="A15" s="23">
         <v>5</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -1036,8 +1039,8 @@
       <c r="J15" s="10"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1065,10 +1068,10 @@
       <c r="J16" s="10"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="20">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -1098,8 +1101,8 @@
       <c r="J17" s="10"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="23"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="15" t="s">
         <v>3</v>
       </c>
@@ -1251,10 +1254,10 @@
       <c r="J22" s="10"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="20">
+      <c r="A23" s="23">
         <v>9</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -1284,8 +1287,8 @@
       <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="20"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="15" t="s">
         <v>3</v>
       </c>
@@ -1561,10 +1564,10 @@
       <c r="J32" s="10"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="20">
+      <c r="A33" s="23">
         <v>14</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="22" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -1594,8 +1597,8 @@
       <c r="J33" s="10"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
+      <c r="A34" s="23"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="15" t="s">
         <v>3</v>
       </c>
@@ -2120,8 +2123,95 @@
       </c>
       <c r="J50" s="10"/>
     </row>
+    <row r="51" spans="1:10">
+      <c r="B51" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="6">
+        <v>11860</v>
+      </c>
+      <c r="E51" s="6">
+        <v>12002</v>
+      </c>
+      <c r="F51" s="6">
+        <v>11978</v>
+      </c>
+      <c r="G51" s="7">
+        <f t="shared" ref="G51:G52" si="15">AVERAGE(D51:F51)</f>
+        <v>11946.666666666666</v>
+      </c>
+      <c r="H51" s="8">
+        <f t="shared" ref="H51:H52" si="16">MIN(D51:F51)</f>
+        <v>11860</v>
+      </c>
+      <c r="I51" s="9">
+        <f t="shared" ref="I51:I52" si="17">MAX(D51:F51)</f>
+        <v>12002</v>
+      </c>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="B52" s="18"/>
+      <c r="C52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D52" s="6">
+        <v>83.79</v>
+      </c>
+      <c r="E52" s="6">
+        <v>82.79</v>
+      </c>
+      <c r="F52" s="6">
+        <v>82.95</v>
+      </c>
+      <c r="G52" s="7">
+        <f t="shared" si="15"/>
+        <v>83.176666666666677</v>
+      </c>
+      <c r="H52" s="8">
+        <f t="shared" si="16"/>
+        <v>82.79</v>
+      </c>
+      <c r="I52" s="9">
+        <f t="shared" si="17"/>
+        <v>83.79</v>
+      </c>
+      <c r="J52" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="45">
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="B49:B50"/>
@@ -2138,34 +2228,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
